--- a/listOfTickers.xlsx
+++ b/listOfTickers.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1220" windowWidth="24960" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$74</definedName>
+  </definedNames>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,86 +31,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="211">
-  <si>
-    <t>BNC.L</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="182">
   <si>
     <t>Banco Santander, S.A.</t>
   </si>
   <si>
-    <t>LSE</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
     <t>Money Center Banks</t>
   </si>
   <si>
-    <t>BOE.L</t>
-  </si>
-  <si>
     <t>The Boeing Company</t>
   </si>
   <si>
-    <t>CCH.L</t>
-  </si>
-  <si>
     <t>COCA-COLA HBC N</t>
   </si>
   <si>
-    <t>VOD.L</t>
-  </si>
-  <si>
     <t>Vodafone Group Plc</t>
   </si>
   <si>
-    <t>LAD.L</t>
-  </si>
-  <si>
     <t>Ladbrokes PLC</t>
   </si>
   <si>
-    <t>7035.L</t>
-  </si>
-  <si>
     <t>MITSUBISHI CORP</t>
   </si>
   <si>
-    <t>TED.L</t>
-  </si>
-  <si>
     <t>TED BAKER</t>
   </si>
   <si>
-    <t>JD.L</t>
-  </si>
-  <si>
     <t>JD Sports Fashion plc</t>
   </si>
   <si>
-    <t>EZJ.L</t>
-  </si>
-  <si>
     <t>easyJet plc</t>
   </si>
   <si>
-    <t>ULVR.L</t>
-  </si>
-  <si>
     <t>Unilever plc</t>
   </si>
   <si>
-    <t>SKY.L</t>
-  </si>
-  <si>
     <t>SKY</t>
   </si>
   <si>
-    <t>OCDO.L</t>
-  </si>
-  <si>
     <t>Ocado Group plc</t>
   </si>
   <si>
@@ -116,42 +81,21 @@
     <t>Pepsico, Inc.</t>
   </si>
   <si>
-    <t>NYQ</t>
-  </si>
-  <si>
-    <t>44RS.L</t>
-  </si>
-  <si>
     <t>Santander UK Group Holdings plc</t>
   </si>
   <si>
-    <t>133716.L</t>
-  </si>
-  <si>
     <t>XEROS TECH GR</t>
   </si>
   <si>
-    <t>SBRY.L</t>
-  </si>
-  <si>
     <t>J Sainsbury plc</t>
   </si>
   <si>
-    <t>JE.L</t>
-  </si>
-  <si>
     <t>JUST EAT</t>
   </si>
   <si>
-    <t>VM.L</t>
-  </si>
-  <si>
     <t>VIRGIN MON HLDG</t>
   </si>
   <si>
-    <t>HAS.L</t>
-  </si>
-  <si>
     <t>Hays plc</t>
   </si>
   <si>
@@ -173,30 +117,18 @@
     <t>Category Number</t>
   </si>
   <si>
-    <t>RWA.L</t>
-  </si>
-  <si>
     <t>Robert Walters PLC</t>
   </si>
   <si>
     <t>Staffing &amp; Outsourcing Services</t>
   </si>
   <si>
-    <t>TYT.L</t>
-  </si>
-  <si>
     <t>Toyota Motor Corporation</t>
   </si>
   <si>
-    <t>WIND.L</t>
-  </si>
-  <si>
     <t>Renewable Energy Generation Limited</t>
   </si>
   <si>
-    <t>CTAG.L</t>
-  </si>
-  <si>
     <t>CloudTag Inc.</t>
   </si>
   <si>
@@ -206,93 +138,48 @@
     <t>Scientific &amp; Technical Instruments</t>
   </si>
   <si>
-    <t>LWRF.L</t>
-  </si>
-  <si>
     <t>LightwaveRF Plc</t>
   </si>
   <si>
     <t>Electronic Equipment</t>
   </si>
   <si>
-    <t>TSCO.L</t>
-  </si>
-  <si>
     <t>Tesco PLC</t>
   </si>
   <si>
     <t>Grocery Stores</t>
   </si>
   <si>
-    <t>MRW.L</t>
-  </si>
-  <si>
     <t>Wm. Morrison Supermarkets plc</t>
   </si>
   <si>
-    <t>GAM.MC</t>
-  </si>
-  <si>
     <t>GAMESA</t>
   </si>
   <si>
-    <t>MCE</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>ABG.MC</t>
-  </si>
-  <si>
     <t>ABENGOA -A-</t>
   </si>
   <si>
-    <t>A3M.MC</t>
-  </si>
-  <si>
-    <t>ATRESMEDIA</t>
-  </si>
-  <si>
-    <t>ABE.MC</t>
-  </si>
-  <si>
     <t>ABERTIS</t>
   </si>
   <si>
-    <t>GAS.MC</t>
-  </si>
-  <si>
     <t>GAS NATURAL SDG</t>
   </si>
   <si>
-    <t>GSJ.MC</t>
-  </si>
-  <si>
     <t>GRP EMPR S JOSE</t>
   </si>
   <si>
-    <t>IBE.MC</t>
-  </si>
-  <si>
     <t>IBERDROLA</t>
   </si>
   <si>
-    <t>IDR.MC</t>
-  </si>
-  <si>
     <t>INDRA SISTEMAS -A-</t>
   </si>
   <si>
-    <t>TEF.MC</t>
-  </si>
-  <si>
     <t>TELEFONICA</t>
   </si>
   <si>
-    <t>ITX.MC</t>
-  </si>
-  <si>
     <t xml:space="preserve">INDITEX </t>
   </si>
   <si>
@@ -308,12 +195,6 @@
     <t>Application Software</t>
   </si>
   <si>
-    <t>AVG</t>
-  </si>
-  <si>
-    <t>AVG Technologies N.V.</t>
-  </si>
-  <si>
     <t>BOX</t>
   </si>
   <si>
@@ -563,18 +444,9 @@
     <t>Zendesk, Inc.</t>
   </si>
   <si>
-    <t>TL0.DE</t>
-  </si>
-  <si>
     <t>Tesla Motors, Inc.</t>
   </si>
   <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Auto Manufacturers - Major</t>
   </si>
   <si>
@@ -584,75 +456,6 @@
     <t>NMS</t>
   </si>
   <si>
-    <t>SE7.BE</t>
-  </si>
-  <si>
-    <t>SEIKO EPSON</t>
-  </si>
-  <si>
-    <t>BER</t>
-  </si>
-  <si>
-    <t>Computer Based Systems</t>
-  </si>
-  <si>
-    <t>SE7.SG</t>
-  </si>
-  <si>
-    <t>STU</t>
-  </si>
-  <si>
-    <t>OCJ.BE</t>
-  </si>
-  <si>
-    <t>ORACLE JAPAN</t>
-  </si>
-  <si>
-    <t>Technical &amp; System Software</t>
-  </si>
-  <si>
-    <t>ORCL.BA</t>
-  </si>
-  <si>
-    <t>BUE</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Business Software &amp; Services</t>
-  </si>
-  <si>
-    <t>ORCL.MX</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>OCJ.SG</t>
-  </si>
-  <si>
-    <t>3N8.F</t>
-  </si>
-  <si>
-    <t>NABTESCO</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>Diversified Machinery</t>
-  </si>
-  <si>
-    <t>TCO1.F</t>
-  </si>
-  <si>
-    <t>TESCO SP ADR</t>
-  </si>
-  <si>
     <t>TSCDY</t>
   </si>
   <si>
@@ -660,13 +463,127 @@
   </si>
   <si>
     <t>TSCDF</t>
+  </si>
+  <si>
+    <t>XSG</t>
+  </si>
+  <si>
+    <t>BNC</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>CCH</t>
+  </si>
+  <si>
+    <t>EZJ</t>
+  </si>
+  <si>
+    <t>HAS</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>LAD</t>
+  </si>
+  <si>
+    <t>OCDO</t>
+  </si>
+  <si>
+    <t>SBRY</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>ULVR</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>VOD</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>TYT</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>CTAG</t>
+  </si>
+  <si>
+    <t>LWRF</t>
+  </si>
+  <si>
+    <t>TSCO</t>
+  </si>
+  <si>
+    <t>MRW</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>NYSE</t>
+  </si>
+  <si>
+    <t>BME</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>GSJ</t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>ITX</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>COTY</t>
+  </si>
+  <si>
+    <t>Coty Inc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -684,6 +601,22 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -746,8 +679,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -767,7 +720,27 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1062,407 +1035,493 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
+      <c r="F3" s="5">
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F5" s="5">
-        <v>410</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
+      <c r="A10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
+      <c r="A11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5">
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>3</v>
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
+      <c r="A18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>3</v>
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5">
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="5">
-        <v>764</v>
+      <c r="C23" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
+      <c r="A24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="5">
-        <v>913</v>
+      <c r="A25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F26" s="5">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F27" s="5">
         <v>314</v>
@@ -1470,239 +1529,247 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F28" s="5">
-        <v>734</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F29" s="5">
-        <v>734</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
-        <v>0</v>
+      <c r="A36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F40" s="5">
         <v>821</v>
@@ -1710,19 +1777,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F41" s="5">
         <v>821</v>
@@ -1730,59 +1797,50 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F42" s="5">
         <v>821</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="5">
-        <v>821</v>
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F44" s="5">
         <v>821</v>
@@ -1790,19 +1848,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F45" s="5">
         <v>821</v>
@@ -1810,19 +1868,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F46" s="5">
         <v>821</v>
@@ -1830,19 +1888,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F47" s="5">
         <v>821</v>
@@ -1850,19 +1908,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F48" s="5">
         <v>821</v>
@@ -1870,82 +1928,70 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="F49" s="5">
-        <v>821</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="5">
-        <v>821</v>
+        <v>166</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F51" s="5">
         <v>821</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="5">
-        <v>821</v>
+      <c r="A52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1956,53 +2002,47 @@
         <v>118</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F53" s="5">
         <v>821</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" s="5">
-        <v>720</v>
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F55" s="5">
         <v>821</v>
@@ -2010,19 +2050,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F56" s="5">
         <v>821</v>
@@ -2030,59 +2070,53 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F57" s="5">
         <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="5">
-        <v>821</v>
+      <c r="A58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F59" s="5">
         <v>821</v>
@@ -2090,99 +2124,95 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <v>821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5">
-        <v>821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F62" s="5">
-        <v>720</v>
+        <v>734</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="F63" s="5">
-        <v>821</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F64" s="5">
         <v>821</v>
@@ -2190,99 +2220,72 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F65" s="5">
-        <v>821</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66" s="5">
-        <v>821</v>
+      <c r="A66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="5">
-        <v>821</v>
+      <c r="A67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68" s="5">
-        <v>821</v>
+      <c r="A68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F69" s="5">
         <v>821</v>
@@ -2290,542 +2293,280 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F70" s="5">
-        <v>821</v>
+        <v>913</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F71" s="5">
         <v>821</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72" s="5">
-        <v>821</v>
+      <c r="A72" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F73" s="5">
-        <v>821</v>
+        <v>720</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F74" s="5">
         <v>821</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F81" s="5">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F83" s="5">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F84" s="5">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F85" s="5">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F86" s="5">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F87" s="5">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F88" s="5">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F89" s="5">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="5">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" s="5">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" s="5">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F94" s="5">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:F61">
+  <sortState ref="A2:F86">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>